--- a/_data/answers/2024.xlsx
+++ b/_data/answers/2024.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymats\Documents\Desktop\Circles\マイサー合同\マイサー合同HP\_data\answers\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575E02C-2BB0-45A9-B673-320BC27FD821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="フォームの回答 1" sheetId="1" r:id="rId4"/>
+    <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -230,82 +239,399 @@
   <si>
     <t>全体としては緩やかな活動ですが、ご自身に合わせて自由に活動できるようになっています。検定や大会を目指す部員もいれば、芸術が趣味で入部した部員や健康維持を目的に入部した部員もいます。興味があれば是非ご確認ください。</t>
   </si>
+  <si>
+    <t>阪大ガジェット研究会</t>
+  </si>
+  <si>
+    <t>2023/4/8</t>
+  </si>
+  <si>
+    <t>不定期</t>
+  </si>
+  <si>
+    <t>Discord</t>
+  </si>
+  <si>
+    <t>お気に入りガジェットの情報や</t>
+  </si>
+  <si>
+    <t>https://twitter.com/OU_Gadgets</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1KpjOh30-dHtQr5rEkOicLxVQbmyxZGmm</t>
+  </si>
+  <si>
+    <t>阪大にはいろんな技術系サークルがありますが...
+それらに散らばるガジェットオタクの溜り場として
+「阪大ガジェット研究会」作りました！！</t>
+  </si>
+  <si>
+    <t>テスト①</t>
+  </si>
+  <si>
+    <t>テスト②</t>
+  </si>
+  <si>
+    <t>23年春頃</t>
+  </si>
+  <si>
+    <t>学祭</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>阪大生が作ったものをなんでも集めて本にするサークルです！</t>
+  </si>
+  <si>
+    <t>@OUsentemce</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11Aqvg6wzSotbZMXCQdClKhbAnnlzwEAV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1oOChF1-lvZ56UA9mv7YswKe2ISEVBJSC</t>
+  </si>
+  <si>
+    <t>寄稿・編集等興味ある人はぜひ入ってください！</t>
+  </si>
+  <si>
+    <t>2023年11月3日</t>
+  </si>
+  <si>
+    <t>豊中キャンパス</t>
+  </si>
+  <si>
+    <t>学祭への参加、愛知へ大学の移転、愛知の魅力発信</t>
+  </si>
+  <si>
+    <t>X(twitter)：https://twitter.com/Aichi_ou
+Mail：aichi.osaka.u@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nYqSuaSaLW4iPJkuQdf5a7qKnfb7iUqf</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XJHP7BpXEolO0EVmZ0eLIWgcqvDyIODU</t>
+  </si>
+  <si>
+    <t>大阪府の隣の隣の隣の愛知県（微妙な距離感！）。濃い味、金鯱、そして車で構成され、カンガルー、カニ、または恐竜の形をした謎のエリアです。そんな魅惑的な謎をあなたの阪大ライフに添えることで彩りにアクセントを加えてみては？</t>
+  </si>
+  <si>
+    <t>阪大和漢薬研究会</t>
+  </si>
+  <si>
+    <t>約50人</t>
+  </si>
+  <si>
+    <t>2003年3月</t>
+  </si>
+  <si>
+    <t>月1回＋不定期活動＋学祭</t>
+  </si>
+  <si>
+    <t>医学部講義棟B視聴覚室</t>
+  </si>
+  <si>
+    <t>漢方の試飲、東洋医学の勉強会、学祭での出店</t>
+  </si>
+  <si>
+    <t>新歓用X(twitter):@wakanyaku2024</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LSVAe1-8aOYF6JMX7oPSdP1ZFOKDL6cQ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1OgBJWgnXyVycPGVKlBuEIl3SA4b26JxS</t>
+  </si>
+  <si>
+    <t>皆さんは和漢薬をご存知ですか？馴染みが無いワードですが、皆さん1度は使ったことがあるであろうお薬です。和漢薬について学んで、医学の深淵を覗いてみませんか？
+弊会では和漢薬についての座学はもちろん、漢方の試飲や生薬の煮出しなど、緩く楽しめる活動もやってます。
+兼部余裕の緩くて楽しい部活ですので、ガチで和漢薬を学びたい人も、活動に緩く参加したい人も、是非遊びに来てください。</t>
+  </si>
+  <si>
+    <t>空き教室</t>
+  </si>
+  <si>
+    <t>対戦、学祭、大会参加など</t>
+  </si>
+  <si>
+    <t>公式Twitter(@handaiTCG)のDMまで</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wNH0yuf5YFJODMaJfYQPeaTxYgXrQRqv</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ThIW-OxAsh8w91Y3Faljq1UUks2mqagL</t>
+  </si>
+  <si>
+    <t>様々なカードゲームの対戦が楽しめます！初心者の人でもデッキを貸りるなどして遊べるので、気軽にご参加ください。
+デュエルスタンバイ！</t>
+  </si>
+  <si>
+    <t>2022/9/27</t>
+  </si>
+  <si>
+    <t>不定期,月1回,学祭</t>
+  </si>
+  <si>
+    <t>豊中キャンパス周辺など</t>
+  </si>
+  <si>
+    <t>色彩や筋トレに関連するすべてのこと。
+特に普段の活動では色彩検定に向けた勉強会や筋トレの報告スレッドなどを使って、モチベーションの維持や緩やかな交流をオンラインベースで行っています。
+色彩検定以外の色彩に関連した資格や検定に挑戦する部員もいれば、色彩に少し興味があって入会した部員もいます。また、健康維持やダイエットを目的に筋トレをしている部員もいれば、大会出場などをしている部員もいます。サークル全体としては緩やかな活動ですが、人それぞれマイペースに取り組めるサークルです。色彩のみ、筋トレのみでの参加も可能です。
+また、年に2回ある大学祭ではパーソナルカラー診断などを行っています。</t>
+  </si>
+  <si>
+    <t>X(旧Twitter):@SHIKIkin_OU
+Instagram:@shikikik_ou</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1butafmxABj9wv774_gdkCINU7sAIdX21</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1LKl0_gTKHGDbj8eI9XwOAM7AMjeu9Vo6</t>
+  </si>
+  <si>
+    <t>新入生はもちろん在学生も大歓迎です！</t>
+  </si>
+  <si>
+    <t>昭和３９年</t>
+  </si>
+  <si>
+    <t>週二回</t>
+  </si>
+  <si>
+    <t>明堂館</t>
+  </si>
+  <si>
+    <t>コントラクトブリッジ</t>
+  </si>
+  <si>
+    <t>メールアドレス: oubc.bridge@gmail.com
+𝕏（旧Twitter）: handai_bridge
+Instagram: oubc24</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1wmOAMAOyiIjjrcWKg4xiinG4Yv9ET564</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1pJRwltOoUWV2usji4_yXD2Kv7QHM8mzS</t>
+  </si>
+  <si>
+    <t>コントラクトブリッジは世界三大トランプゲームの１つです。
+トランプゲームの中では珍しく国際共通ルールが確立しており、世界中どこでも初めて会う人と楽しめます！
+半年に一回の学生大会に向けて練習を頑張っており、その中で年２回の合宿などの他大学と交流ができるイベントも計画しています！</t>
+  </si>
+  <si>
+    <t>大阪大学紅茶同好会</t>
+  </si>
+  <si>
+    <t>2022/5</t>
+  </si>
+  <si>
+    <t>不定期,月1回</t>
+  </si>
+  <si>
+    <t>豊中キャンパス周辺、池田駅近くのコミュニティスペースなど</t>
+  </si>
+  <si>
+    <t>お茶会をしたり、紅茶のお店を訪問したりしています。</t>
+  </si>
+  <si>
+    <t>Twitter:@ou_tea_circle</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZBT8SYRAc-OmzaZEfhPHuBYa5a5P6R5_</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Tvlxr5Cre0OZ0CL1ihpstIBaXPK3YaSX</t>
+  </si>
+  <si>
+    <t>少しでも紅茶に興味があれば是非！</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大阪大学ネタツイから卒論まで本にするサークル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大阪大学愛知同好会</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>大阪大学</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TCG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>サークル</t>
+    </r>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>大阪大学コントラクトブリッジ部</t>
+    <rPh sb="0" eb="4">
+      <t>オオサカダイガク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="8">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF4CCCC"/>
+        <bgColor rgb="FFF4CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -495,26 +821,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:T116"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="20" width="18.88"/>
+    <col min="1" max="1" width="5.7109375" customWidth="1"/>
+    <col min="2" max="20" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,215 +883,917 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2">
+      <c r="O1" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
-        <v>45358.75228649305</v>
-      </c>
-      <c r="B2" s="4" t="s">
+        <v>45358.752286493051</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-    </row>
-    <row r="3">
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
-        <v>45363.46251725694</v>
-      </c>
-      <c r="B3" s="4" t="s">
+        <v>45363.462517256943</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="O3" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
-        <v>45365.88419121528</v>
-      </c>
-      <c r="B4" s="4" t="s">
+        <v>45365.884191215278</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="4">
-        <v>41.0</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="1">
+        <v>41</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="O4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
-        <v>45368.48071318287</v>
-      </c>
-      <c r="B5" s="4" t="s">
+        <v>45368.480713182871</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="J5" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="O5" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>45368.653474085644</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="4">
-        <v>56.0</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="1">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="1" t="s">
         <v>64</v>
       </c>
+      <c r="O6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="3">
+        <v>45375.954739212961</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="O7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="3">
+        <v>45375.956251446754</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="O8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="3">
+        <v>45375.970987418987</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="O9" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="6">
+        <v>45380.688961712964</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" s="7">
+        <v>29</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="3">
+        <v>45383.675380011569</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="1">
+        <v>9</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="3">
+        <v>45383.847972650459</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="O12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="3">
+        <v>45384.977684467594</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2023.1</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="O13" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="6">
+        <v>45386.691657013886</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="7">
+        <v>56</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="3">
+        <v>45386.764584259261</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="1">
+        <v>5</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="O15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="3">
+        <v>45386.776267800931</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="1">
+        <v>29</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="O16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15">
+      <c r="O17" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="15:15">
+      <c r="O18" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="15:15">
+      <c r="O19" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="15:15">
+      <c r="O20" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="15:15">
+      <c r="O21" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="15:15">
+      <c r="O22" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="15:15">
+      <c r="O23" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="15:15">
+      <c r="O24" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="15:15">
+      <c r="O25" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="15:15">
+      <c r="O26" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="15:15">
+      <c r="O27" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="15:15">
+      <c r="O28" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="15:15">
+      <c r="O29" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="15:15">
+      <c r="O30" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="15:15">
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="15:15">
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="15:15">
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="15:15">
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="15:15">
+      <c r="O35" s="2"/>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" s="2"/>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" s="2"/>
+    </row>
+    <row r="38" spans="15:15">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" s="2"/>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" s="2"/>
+    </row>
+    <row r="41" spans="15:15">
+      <c r="O41" s="2"/>
+    </row>
+    <row r="42" spans="15:15">
+      <c r="O42" s="2"/>
+    </row>
+    <row r="43" spans="15:15">
+      <c r="O43" s="2"/>
+    </row>
+    <row r="44" spans="15:15">
+      <c r="O44" s="2"/>
+    </row>
+    <row r="45" spans="15:15">
+      <c r="O45" s="2"/>
+    </row>
+    <row r="46" spans="15:15">
+      <c r="O46" s="2"/>
+    </row>
+    <row r="47" spans="15:15">
+      <c r="O47" s="2"/>
+    </row>
+    <row r="48" spans="15:15">
+      <c r="O48" s="2"/>
+    </row>
+    <row r="49" spans="15:15">
+      <c r="O49" s="2"/>
+    </row>
+    <row r="50" spans="15:15">
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="15:15">
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="15:15">
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="15:15">
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="15:15">
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="15:15">
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="15:15">
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="15:15">
+      <c r="O57" s="2"/>
+    </row>
+    <row r="58" spans="15:15">
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="15:15">
+      <c r="O59" s="2"/>
+    </row>
+    <row r="60" spans="15:15">
+      <c r="O60" s="2"/>
+    </row>
+    <row r="61" spans="15:15">
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="15:15">
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="15:15">
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="15:15">
+      <c r="O64" s="2"/>
+    </row>
+    <row r="65" spans="15:15">
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="15:15">
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="15:15">
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="15:15">
+      <c r="O68" s="2"/>
+    </row>
+    <row r="69" spans="15:15">
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="15:15">
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="15:15">
+      <c r="O71" s="2"/>
+    </row>
+    <row r="72" spans="15:15">
+      <c r="O72" s="2"/>
+    </row>
+    <row r="73" spans="15:15">
+      <c r="O73" s="2"/>
+    </row>
+    <row r="74" spans="15:15">
+      <c r="O74" s="2"/>
+    </row>
+    <row r="75" spans="15:15">
+      <c r="O75" s="2"/>
+    </row>
+    <row r="76" spans="15:15">
+      <c r="O76" s="2"/>
+    </row>
+    <row r="77" spans="15:15">
+      <c r="O77" s="2"/>
+    </row>
+    <row r="78" spans="15:15">
+      <c r="O78" s="2"/>
+    </row>
+    <row r="79" spans="15:15">
+      <c r="O79" s="2"/>
+    </row>
+    <row r="80" spans="15:15">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="15:15">
+      <c r="O81" s="2"/>
+    </row>
+    <row r="82" spans="15:15">
+      <c r="O82" s="2"/>
+    </row>
+    <row r="83" spans="15:15">
+      <c r="O83" s="2"/>
+    </row>
+    <row r="84" spans="15:15">
+      <c r="O84" s="2"/>
+    </row>
+    <row r="85" spans="15:15">
+      <c r="O85" s="2"/>
+    </row>
+    <row r="86" spans="15:15">
+      <c r="O86" s="2"/>
+    </row>
+    <row r="87" spans="15:15">
+      <c r="O87" s="2"/>
+    </row>
+    <row r="88" spans="15:15">
+      <c r="O88" s="2"/>
+    </row>
+    <row r="89" spans="15:15">
+      <c r="O89" s="2"/>
+    </row>
+    <row r="90" spans="15:15">
+      <c r="O90" s="2"/>
+    </row>
+    <row r="91" spans="15:15">
+      <c r="O91" s="2"/>
+    </row>
+    <row r="92" spans="15:15">
+      <c r="O92" s="2"/>
+    </row>
+    <row r="93" spans="15:15">
+      <c r="O93" s="2"/>
+    </row>
+    <row r="94" spans="15:15">
+      <c r="O94" s="2"/>
+    </row>
+    <row r="95" spans="15:15">
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="15:15">
+      <c r="O96" s="2"/>
+    </row>
+    <row r="97" spans="15:15">
+      <c r="O97" s="2"/>
+    </row>
+    <row r="98" spans="15:15">
+      <c r="O98" s="2"/>
+    </row>
+    <row r="99" spans="15:15">
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="15:15">
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="15:15">
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="15:15">
+      <c r="O102" s="2"/>
+    </row>
+    <row r="103" spans="15:15">
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="15:15">
+      <c r="O104" s="2"/>
+    </row>
+    <row r="105" spans="15:15">
+      <c r="O105" s="2"/>
+    </row>
+    <row r="106" spans="15:15">
+      <c r="O106" s="2"/>
+    </row>
+    <row r="107" spans="15:15">
+      <c r="O107" s="2"/>
+    </row>
+    <row r="108" spans="15:15">
+      <c r="O108" s="2"/>
+    </row>
+    <row r="109" spans="15:15">
+      <c r="O109" s="2"/>
+    </row>
+    <row r="110" spans="15:15">
+      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="15:15">
+      <c r="O111" s="2"/>
+    </row>
+    <row r="112" spans="15:15">
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="15:15">
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="15:15">
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="15:15">
+      <c r="O115" s="2"/>
+    </row>
+    <row r="116" spans="15:15">
+      <c r="O116" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4"/>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="J2"/>
-    <hyperlink r:id="rId2" ref="K2"/>
-    <hyperlink r:id="rId3" ref="J3"/>
-    <hyperlink r:id="rId4" ref="K3"/>
-    <hyperlink r:id="rId5" ref="J4"/>
-    <hyperlink r:id="rId6" ref="K4"/>
-    <hyperlink r:id="rId7" ref="J5"/>
-    <hyperlink r:id="rId8" ref="K5"/>
-    <hyperlink r:id="rId9" ref="J6"/>
-    <hyperlink r:id="rId10" ref="K6"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="J5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="K6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="I7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="J10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="K10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="J11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="K11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="J12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="K12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="J13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="K13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="J14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="K14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="J15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="K15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="K16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/_data/answers/2024.xlsx
+++ b/_data/answers/2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymats\Documents\Desktop\Circles\マイサー合同\マイサー合同HP\_data\answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E575E02C-2BB0-45A9-B673-320BC27FD821}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306EBB7C-A2EA-4B44-B151-1CD9114D2496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>2回目に提出した回答を採用
+	-本郷</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -59,6 +83,9 @@
   </si>
   <si>
     <t>その他、運営に対するご意見・ご質問・連絡事項などの特記事項があればお願いします</t>
+  </si>
+  <si>
+    <t>CHECK</t>
   </si>
   <si>
     <t>大阪大学モンブラン同好会</t>
@@ -272,6 +299,9 @@
     <t>テスト②</t>
   </si>
   <si>
+    <t>大阪大学ネタツイから卒論まで本にするサークル</t>
+  </si>
+  <si>
     <t>23年春頃</t>
   </si>
   <si>
@@ -294,6 +324,9 @@
   </si>
   <si>
     <t>寄稿・編集等興味ある人はぜひ入ってください！</t>
+  </si>
+  <si>
+    <t>大阪大学愛知同好会</t>
   </si>
   <si>
     <t>2023年11月3日</t>
@@ -452,16 +485,116 @@
     <t>少しでも紅茶に興味があれば是非！</t>
   </si>
   <si>
-    <t>CHECK</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>大阪大学ネタツイから卒論まで本にするサークル</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>大阪大学愛知同好会</t>
-    <phoneticPr fontId="4"/>
+    <t>オンライン（Discord）</t>
+  </si>
+  <si>
+    <t>ガジェットをはじめとした電子機器やその他諸々の情報交換</t>
+  </si>
+  <si>
+    <t>Twitter(X)のDMまでご連絡ください</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17vjOahB-4x07ASrLrg5C9gYN8dG2GGSO</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1zcxfuXVrBMrWhbMqoh9lD-lJCfPcS5aE</t>
+  </si>
+  <si>
+    <t>阪大ガジェット研究会では、ガジェットｵﾀｸの皆様のご入会をお待ちしております！ 
+ガジェットについて熱く語り合いましょう！！
+また、「スマホや通信プランの情報が欲しいよ～」というROM希望の方でも大歓迎です！</t>
+  </si>
+  <si>
+    <t>大阪大学コスプレサークル</t>
+  </si>
+  <si>
+    <t>4人</t>
+  </si>
+  <si>
+    <t>2022年11月8日</t>
+  </si>
+  <si>
+    <t>不定期(目安として月1-2回)</t>
+  </si>
+  <si>
+    <t>discord、スタジオ、アコスタ、レンタルスペース</t>
+  </si>
+  <si>
+    <t>コスプレを通じて部員同士の交流や学外のレイヤーと交流</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X(@OU_costumeplay) Instagram(ou_costumeplay) Gmail(oucostumeplay@gmail.com)   </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Tksa-epUdx2pChvqTyEta1iVk_Bpvnm6</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1eEcSpQSGwaJbXebG0TynYbZJPqinfB3x</t>
+  </si>
+  <si>
+    <t>会費は基本0円です(学際時の費用の負担やイベント等にかかる費用の自己負担はお願いしています)
+画像内でも書いていますがコスプレはしないけど見たりするのが好きといった方やメイク、ウィッグ作り、コスプレの小道具作りなどに興味がある方も大歓迎です！</t>
+  </si>
+  <si>
+    <t>コスプレが好きな方大募集です！もちろんコスプレはしたくないけどレイヤーを撮りたい！
+レイヤーと交流したいという思いを持つ方も大歓迎です！</t>
+  </si>
+  <si>
+    <t>対面開催についてどのようになっているのかお伺いしたいです</t>
+  </si>
+  <si>
+    <t>大阪大学道路研究会</t>
+  </si>
+  <si>
+    <t>6人</t>
+  </si>
+  <si>
+    <t>2022年12月12日</t>
+  </si>
+  <si>
+    <t>Web上（今後、対面も想定）</t>
+  </si>
+  <si>
+    <t>　①新道&amp;珍道などの訪問
+　②SA&amp;PA散策
+　③交通網の提案
+を軸に活動します。普段は、道路に関する様々な情報を共有しあっています。</t>
+  </si>
+  <si>
+    <t>fromhandaitoroad@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1b7KiPc3wn2n1294POhAPkqx6Ithbw6om</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dKQ7qkYZD8Bo2WKn4dS06xbXnm-HaEvv</t>
+  </si>
+  <si>
+    <t>ほとんど幽霊サークルの状態が続いているのですが、着実に部員を増やす不思議なサークル。最近は新入部員が3人入り、今年こそ本格的に活動開始の予定。ゴールは見えない。</t>
+  </si>
+  <si>
+    <t>大阪大学逸脱的音楽研究会</t>
+  </si>
+  <si>
+    <t>8人</t>
+  </si>
+  <si>
+    <t>2024/1/24</t>
+  </si>
+  <si>
+    <t>豊中キャンパス、箕面キャンパス（予定）</t>
+  </si>
+  <si>
+    <t>マイナーな音楽について掘り下げること。具体的な活動としては、古今東西の民族音楽を調べる、演奏活動（軽音サークルでは出来ないようなジャンル、構成など）、曲の制作など。</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/handai_itsudatsu?igsh=MTdhZ2pobTFtZWJ6eg%3D%3D&amp;utm_source=qr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1rcyzhIunZIgYGfIYBDQfHEPeDXEhYT1U</t>
+  </si>
+  <si>
+    <t>音楽好きが他の音楽サークルでは出来ないようなことをトコトン出来るために作ったサークルです！まだ発足したばかりのため、あなたのやりたいことが出来る可能性が高いです！皆さんの入会をお待ちしています！</t>
   </si>
   <si>
     <r>
@@ -494,14 +627,15 @@
       </rPr>
       <t>サークル</t>
     </r>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>大阪大学色彩検定筋トレサークル</t>
+    <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>大阪大学コントラクトブリッジ部</t>
-    <rPh sb="0" eb="4">
-      <t>オオサカダイガク</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -511,7 +645,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -522,6 +656,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,25 +664,27 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,12 +744,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -827,26 +964,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T116"/>
+  <dimension ref="A1:T120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B16" sqref="B16"/>
+      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="20" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="3" max="20" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -889,399 +1027,391 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
+      <c r="O1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>45358.752286493051</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
-      <c r="O2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+      <c r="O2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>45363.462517256943</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O3" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>45365.884191215278</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>41</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O4" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>45368.480713182871</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O5" s="2" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>45368.653474085644</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C6" s="1">
         <v>56</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="O6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>45375.954739212961</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C7" s="1">
         <v>10</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O7" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>45375.956251446754</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O8" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>45375.970987418987</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="6">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>45380.688961712964</v>
       </c>
-      <c r="B10" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1">
         <v>29</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="D10" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7" t="s">
+      <c r="E10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="F10" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="8" t="s">
+      <c r="H10" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="K10" s="8" t="s">
+      <c r="I10" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7" t="s">
+      <c r="J10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7" t="b">
+      <c r="K10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="O10" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="7"/>
-      <c r="T10" s="7"/>
-    </row>
-    <row r="11" spans="1:20">
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>45383.675380011569</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>133</v>
+      <c r="B11" s="1" t="s">
+        <v>85</v>
       </c>
       <c r="C11" s="1">
         <v>9</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="O11" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>45383.847972650459</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="O12" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>45384.977684467594</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>134</v>
+      <c r="B13" s="11" t="s">
+        <v>169</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -1290,65 +1420,65 @@
         <v>2023.1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="O13" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="6">
         <v>45386.691657013886</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>56</v>
+      <c r="B14" s="12" t="s">
+        <v>170</v>
       </c>
       <c r="C14" s="7">
         <v>56</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>106</v>
+      <c r="D14" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>115</v>
       </c>
       <c r="L14" s="7"/>
       <c r="M14" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7" t="b">
@@ -1360,412 +1490,575 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>45386.764584259261</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>135</v>
+      <c r="B15" s="13" t="s">
+        <v>171</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="O15" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>45386.776267800931</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C16" s="1">
         <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="O16" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="15:15">
-      <c r="O17" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="15:15">
-      <c r="O18" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="15:15">
-      <c r="O19" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="15:15">
-      <c r="O20" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="15:15">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A17" s="6">
+        <v>45390.955428217596</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="7">
+        <v>10</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>45392.965954212967</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="O18" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>45395.493307291668</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="O19" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>45399.946762511579</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="O20" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O21" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="15:15">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O22" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="15:15">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O23" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="15:15">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O24" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="15:15">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O25" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="15:15">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O26" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="15:15">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="15:15">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="15:15">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="15:15">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="O30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="15:15">
-      <c r="O31" s="2"/>
-    </row>
-    <row r="32" spans="15:15">
-      <c r="O32" s="2"/>
-    </row>
-    <row r="33" spans="15:15">
-      <c r="O33" s="2"/>
-    </row>
-    <row r="34" spans="15:15">
-      <c r="O34" s="2"/>
-    </row>
-    <row r="35" spans="15:15">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O31" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="O32" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O33" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O34" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="15:15">
+    <row r="36" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="15:15">
+    <row r="37" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="15:15">
+    <row r="38" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="15:15">
+    <row r="39" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O39" s="2"/>
     </row>
-    <row r="40" spans="15:15">
+    <row r="40" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O40" s="2"/>
     </row>
-    <row r="41" spans="15:15">
+    <row r="41" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="15:15">
+    <row r="42" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="15:15">
+    <row r="43" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="15:15">
+    <row r="44" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="15:15">
+    <row r="45" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="15:15">
+    <row r="46" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="15:15">
+    <row r="47" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="15:15">
+    <row r="48" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="15:15">
+    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="15:15">
+    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="15:15">
+    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="15:15">
+    <row r="52" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="15:15">
+    <row r="53" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="15:15">
+    <row r="54" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="15:15">
+    <row r="55" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="15:15">
+    <row r="56" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="15:15">
+    <row r="57" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="15:15">
+    <row r="58" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="15:15">
+    <row r="59" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="15:15">
+    <row r="60" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="15:15">
+    <row r="61" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="15:15">
+    <row r="62" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="15:15">
+    <row r="63" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="15:15">
+    <row r="64" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="15:15">
+    <row r="65" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="15:15">
+    <row r="66" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="15:15">
+    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="15:15">
+    <row r="68" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="15:15">
+    <row r="69" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="15:15">
+    <row r="70" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="15:15">
+    <row r="71" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="15:15">
+    <row r="72" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="15:15">
+    <row r="73" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="15:15">
+    <row r="74" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="15:15">
+    <row r="75" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="15:15">
+    <row r="76" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="15:15">
+    <row r="77" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="15:15">
+    <row r="78" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="15:15">
+    <row r="79" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="15:15">
+    <row r="80" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="15:15">
+    <row r="81" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="15:15">
+    <row r="82" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="15:15">
+    <row r="83" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="15:15">
+    <row r="84" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="15:15">
+    <row r="85" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="15:15">
+    <row r="86" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="15:15">
+    <row r="87" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="15:15">
+    <row r="88" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="15:15">
+    <row r="89" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="15:15">
+    <row r="90" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="15:15">
+    <row r="91" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="15:15">
+    <row r="92" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="15:15">
+    <row r="93" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="15:15">
+    <row r="94" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="15:15">
+    <row r="95" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="15:15">
+    <row r="96" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="15:15">
+    <row r="97" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="15:15">
+    <row r="98" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="15:15">
+    <row r="99" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="15:15">
+    <row r="100" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="15:15">
+    <row r="101" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="15:15">
+    <row r="102" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="15:15">
+    <row r="103" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="15:15">
+    <row r="104" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="15:15">
+    <row r="105" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="15:15">
+    <row r="106" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="15:15">
+    <row r="107" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="15:15">
+    <row r="108" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="15:15">
+    <row r="109" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="15:15">
+    <row r="110" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="15:15">
+    <row r="111" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="15:15">
+    <row r="112" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="15:15">
+    <row r="113" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="15:15">
+    <row r="114" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="15:15">
+    <row r="115" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="15:15">
+    <row r="116" spans="15:15" x14ac:dyDescent="0.2">
       <c r="O116" s="2"/>
     </row>
+    <row r="117" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O117" s="2"/>
+    </row>
+    <row r="118" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="15:15" x14ac:dyDescent="0.2">
+      <c r="O120" s="2"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="4"/>
+  <phoneticPr fontId="5"/>
   <hyperlinks>
     <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
@@ -1793,7 +2086,16 @@
     <hyperlink ref="K15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
     <hyperlink ref="J16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
     <hyperlink ref="K16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="J17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="K17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="K18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="K19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="I20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId35"/>
 </worksheet>
 </file>
--- a/_data/answers/2024.xlsx
+++ b/_data/answers/2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymats\Documents\Desktop\Circles\マイサー合同\マイサー合同HP\_data\answers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{306EBB7C-A2EA-4B44-B151-1CD9114D2496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAD5940-C133-485B-A6C3-004297929F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="224">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -430,6 +430,9 @@
     <t>新入生はもちろん在学生も大歓迎です！</t>
   </si>
   <si>
+    <t>コントラクトブリッジ部</t>
+  </si>
+  <si>
     <t>昭和３９年</t>
   </si>
   <si>
@@ -595,6 +598,175 @@
   </si>
   <si>
     <t>音楽好きが他の音楽サークルでは出来ないようなことをトコトン出来るために作ったサークルです！まだ発足したばかりのため、あなたのやりたいことが出来る可能性が高いです！皆さんの入会をお待ちしています！</t>
+  </si>
+  <si>
+    <t>大阪大学サークル紹介</t>
+  </si>
+  <si>
+    <t>2021年1月</t>
+  </si>
+  <si>
+    <t>週1回</t>
+  </si>
+  <si>
+    <t>オンライン（豊中キャンパス付近に拠点模索中！）</t>
+  </si>
+  <si>
+    <t>SNSで大阪大学に存在するサークル・部活・学生団体を紹介しています！</t>
+  </si>
+  <si>
+    <t>SNS: @handaisyoukai もしくはHP: https://handaisyokai.wixsite.com/my-site の「お問い合わせ」よりお願いします。</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=14X5vtet8ZfKRstHz4OvM9Xxtv7L4h5E2</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YxeWcblfWWBY1Wl6BQrddFj896nFK9Og</t>
+  </si>
+  <si>
+    <t>コロナ禍で新歓が禁止され困っている新入生を見て、「SNSでもサークルを紹介しているコンテンツがあったらいいな！」と思った阪大生5人が2021年に創始した団体です。今年で活動4年目を迎え、2023年度は約170団体をSNSとHPで紹介しました！
+サークル紹介以外にも、新入生のよくある質問/インタビュー企画/新歓カレンダーなど様々なことに自由に挑戦しています。今年も色々なコンテンツを充実させていく予定なので、InstagramとX/Twitterのフォローお願いします！
+「一緒に活動してみたい！」って方はHPのお問い合わせよりいつでもお待ちしております！SNS総フォロワー数は7000人を超えており、SNS運用・デザイン・画像作成・動画編集・インタビュー・プログラミングなどやりがいのあることばかりです。いろんなサークルに詳しくなれるので、新しいことを始めたい方にもおすすめ！
+ぜひ一緒に活動してみませんか？</t>
+  </si>
+  <si>
+    <t>説明会への招待ありがとうございます！よろしくお願いします。</t>
+  </si>
+  <si>
+    <t>大阪大学カープ応援サークル</t>
+  </si>
+  <si>
+    <t>2024年4月20日</t>
+  </si>
+  <si>
+    <t>石橋周辺、甲子園など</t>
+  </si>
+  <si>
+    <t>広島東洋カープを応援する。</t>
+  </si>
+  <si>
+    <t>u476911g@ecs.osaka-u.ac.jp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZFMgUCDhl6EwNA4-9yxeZROafpsXCYbK</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=11dkeZ3BQdkmaOY0iPua21fL832dLspO9</t>
+  </si>
+  <si>
+    <t>一緒にカープを応援しましょう！</t>
+  </si>
+  <si>
+    <t>再履バス同好会</t>
+  </si>
+  <si>
+    <t>2017-6-1</t>
+  </si>
+  <si>
+    <t>主にオンライン、対面もあり</t>
+  </si>
+  <si>
+    <t>再履バスとは、大阪大学の3つのキャンパスを結ぶ学内専用の連絡バスです。私たちはそんな再履バスを中心に、路線バスから高速バスまで幅広く愛でながら様々な企画・提案を行っています。バスの写真撮影からバスの貸切まで、グッズ作りからバス位置情報配信システムの開発まで幅広く活動中。学内バスの輸送効率化や利便性向上をめざし、新たなダイヤを提案することもあります。（採用実績あり）</t>
+  </si>
+  <si>
+    <t>Twitter@sairi_doukoukai, LINE@544fraid</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IUnxTRnaQjLR10BLwbJShICLcnOvMjq5</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Q4wTNWPRpg6PYVBHvZJuv6fyu4RImrnF</t>
+  </si>
+  <si>
+    <t>もちろん再履バスのみならず、一般の路線バスや高速バスも好みます。バスが好きな方、再履バス利用者の役に立つものを作ってみたい方、ぜひ見学に来てください！固定された活動日やハードなノルマはないのでお気軽にご参加ください。会費は無料です。</t>
+  </si>
+  <si>
+    <t>阪大ミュージアム同好会</t>
+  </si>
+  <si>
+    <t>2022/05/13</t>
+  </si>
+  <si>
+    <t>基本的に月1回</t>
+  </si>
+  <si>
+    <t>関西各地のミュージアム</t>
+  </si>
+  <si>
+    <t>博物館、美術館、動植物園…といったミュージアムを見学して、見学後にはご飯を食べながら思ったことをゆるくあれこれ話しています。</t>
+  </si>
+  <si>
+    <t>X(旧Twitter):https://x.com/HA_Museumclub?t=ReIU1iAWBXrUJqxSNCt4xw&amp;s=09
+Instagram:https://www.instagram.com/handai_museumclub?igsh=MWkzaGM4d2N3a292Zg==
+メール:handaimuseumclub@gmail.com</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Ky9yCETLy1b1P2rc4A0LJ25__bT9AEtV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1qHmVat2ZfkPHzMG6ePLaKdzcO4EGT4Sq</t>
+  </si>
+  <si>
+    <t>いろいろな興味関心を持った部員たちが、毎回の活動でワイワイあれこれ話しています。ミュージアムと聞くと、敷居が高い印象を覚える人もいるかもしれませんが、そんな人も大歓迎！専門知識は一切いりません！もちろん、ミュージアムがもとから好きな人も大歓迎です。</t>
+  </si>
+  <si>
+    <t>ぽちぽちのつどい</t>
+  </si>
+  <si>
+    <t>2023/4/1</t>
+  </si>
+  <si>
+    <t>週1,2回定例会など、月1回ごはん会、不定期</t>
+  </si>
+  <si>
+    <t>オンライン、豊中キャンパス、吹田キャンパス、pluginlabなど</t>
+  </si>
+  <si>
+    <t>主にDiscordというオンライン上でflutterを使ったアプリ開発をしています！
+2023年度は「石橋ごはんルーレット」をリリースしました。
+他にも個人活動、プロジェクト活動、他のサークルとのコラボなどでいろいろなアプリを作っています！</t>
+  </si>
+  <si>
+    <t>twitter : @pochipochitudoi</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1coJwQpVuwHiuVodMkGell-1aIhSDvSjV</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13OT-a4-SkIDd7BEXO-TivcWSlQZiTzEd</t>
+  </si>
+  <si>
+    <t>初心者・2回生以上大歓迎！（創設者もサークル創設時は未経験でした…）
+オープンな雰囲気のサークルです。
+このサークルに入るとflutterでアプリを作りリリースすることができます！
+気になった方はTwitterから是非ご連絡ください。</t>
+  </si>
+  <si>
+    <t>色々とご迷惑をかけてしまし申し訳ありません！よろしくお願いいたします。</t>
+  </si>
+  <si>
+    <t>大阪大学共通棟研究会</t>
+  </si>
+  <si>
+    <t>2022年10月8日</t>
+  </si>
+  <si>
+    <t>全学教育推進機構講義棟を中心とした豊中キャンパス全体</t>
+  </si>
+  <si>
+    <t>共通棟などの空き教室表の作成、学生のためになる情報の発信（新入生向け情報、忘れ物の情報etc）</t>
+  </si>
+  <si>
+    <t>Twitterアカウント@ou_sciのDMまでお問い合わせください</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16gmVLE1Mbcvhal8bdyFW9R1TkFhiWd3m</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xg5YLJEXMIgR69VUwns-Aj-neB6WaIae</t>
+  </si>
+  <si>
+    <t>阪大/共通棟のことが好きな方、学年・学部問わず募集中です！</t>
   </si>
   <si>
     <r>
@@ -629,14 +801,6 @@
     </r>
     <phoneticPr fontId="5"/>
   </si>
-  <si>
-    <t>大阪大学色彩検定筋トレサークル</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>大阪大学コントラクトブリッジ部</t>
-    <phoneticPr fontId="5"/>
-  </si>
 </sst>
 </file>
 
@@ -645,7 +809,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -656,7 +820,6 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -664,21 +827,18 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="6"/>
@@ -693,6 +853,13 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -735,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -748,8 +915,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,23 +1133,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T120"/>
+  <dimension ref="A1:T126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="53.5703125" customWidth="1"/>
+    <col min="2" max="2" width="77.5703125" customWidth="1"/>
     <col min="3" max="20" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1031,7 +1196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>45358.752286493051</v>
       </c>
@@ -1074,7 +1239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>45363.462517256943</v>
       </c>
@@ -1118,7 +1283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>45365.884191215278</v>
       </c>
@@ -1159,7 +1324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20">
       <c r="A5" s="3">
         <v>45368.480713182871</v>
       </c>
@@ -1197,7 +1362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20">
       <c r="A6" s="3">
         <v>45368.653474085644</v>
       </c>
@@ -1235,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20">
       <c r="A7" s="3">
         <v>45375.954739212961</v>
       </c>
@@ -1270,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20">
       <c r="A8" s="3">
         <v>45375.956251446754</v>
       </c>
@@ -1281,7 +1446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20">
       <c r="A9" s="3">
         <v>45375.970987418987</v>
       </c>
@@ -1292,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20">
       <c r="A10" s="3">
         <v>45380.688961712964</v>
       </c>
@@ -1330,7 +1495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20">
       <c r="A11" s="3">
         <v>45383.675380011569</v>
       </c>
@@ -1368,7 +1533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:20">
       <c r="A12" s="3">
         <v>45383.847972650459</v>
       </c>
@@ -1406,12 +1571,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:20">
       <c r="A13" s="3">
         <v>45384.977684467594</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>169</v>
+        <v>223</v>
       </c>
       <c r="C13" s="1">
         <v>20</v>
@@ -1444,12 +1609,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:20">
       <c r="A14" s="6">
         <v>45386.691657013886</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>170</v>
+      <c r="B14" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="C14" s="7">
         <v>56</v>
@@ -1490,83 +1655,83 @@
       <c r="S14" s="7"/>
       <c r="T14" s="7"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20">
       <c r="A15" s="3">
         <v>45386.764584259261</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>171</v>
+      <c r="B15" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="C15" s="1">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O15" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20">
       <c r="A16" s="3">
         <v>45386.776267800931</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1">
         <v>29</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O16" s="1" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:20">
       <c r="A17" s="6">
         <v>45390.955428217596</v>
       </c>
@@ -1583,24 +1748,24 @@
         <v>68</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7" t="b">
@@ -1612,450 +1777,684 @@
       <c r="S17" s="7"/>
       <c r="T17" s="7"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:20">
       <c r="A18" s="3">
         <v>45392.965954212967</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="O18" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="3">
         <v>45395.493307291668</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="O19" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="3">
         <v>45399.946762511579</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>68</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O20" s="1" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O21" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O22" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O23" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O24" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O25" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="O26" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="3">
+        <v>45402.827518333332</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="1">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="3">
+        <v>45403.951256562505</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C22" s="1">
+        <v>6</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="3">
+        <v>45406.018679745372</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="1">
+        <v>23</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="3">
+        <v>45406.447045127316</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="O24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="3">
+        <v>45406.695381956015</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C25" s="1">
+        <v>12</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="O25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="3">
+        <v>45406.869720254632</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="M26" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O26" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="O27" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:20">
       <c r="O28" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:20">
       <c r="O29" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:20">
       <c r="O30" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:20">
       <c r="O31" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:20">
       <c r="O32" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="15:15">
       <c r="O33" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="15:15">
       <c r="O34" s="2" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O35" s="2"/>
-    </row>
-    <row r="36" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O36" s="2"/>
-    </row>
-    <row r="37" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O37" s="2"/>
-    </row>
-    <row r="38" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O38" s="2"/>
-    </row>
-    <row r="39" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="15:15" x14ac:dyDescent="0.2">
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="15:15">
+      <c r="O35" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="15:15">
+      <c r="O36" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="15:15">
+      <c r="O37" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="15:15">
+      <c r="O38" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="15:15">
+      <c r="O39" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="15:15">
+      <c r="O40" s="2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="15:15">
       <c r="O41" s="2"/>
     </row>
-    <row r="42" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="15:15">
       <c r="O42" s="2"/>
     </row>
-    <row r="43" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="15:15">
       <c r="O43" s="2"/>
     </row>
-    <row r="44" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="15:15">
       <c r="O44" s="2"/>
     </row>
-    <row r="45" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="15:15">
       <c r="O45" s="2"/>
     </row>
-    <row r="46" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="15:15">
       <c r="O46" s="2"/>
     </row>
-    <row r="47" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="15:15">
       <c r="O47" s="2"/>
     </row>
-    <row r="48" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="15:15">
       <c r="O48" s="2"/>
     </row>
-    <row r="49" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="15:15">
       <c r="O49" s="2"/>
     </row>
-    <row r="50" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="15:15">
       <c r="O50" s="2"/>
     </row>
-    <row r="51" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="15:15">
       <c r="O51" s="2"/>
     </row>
-    <row r="52" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="15:15">
       <c r="O52" s="2"/>
     </row>
-    <row r="53" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="15:15">
       <c r="O53" s="2"/>
     </row>
-    <row r="54" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="15:15">
       <c r="O54" s="2"/>
     </row>
-    <row r="55" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="15:15">
       <c r="O55" s="2"/>
     </row>
-    <row r="56" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="15:15">
       <c r="O56" s="2"/>
     </row>
-    <row r="57" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="15:15">
       <c r="O57" s="2"/>
     </row>
-    <row r="58" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="15:15">
       <c r="O58" s="2"/>
     </row>
-    <row r="59" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="15:15">
       <c r="O59" s="2"/>
     </row>
-    <row r="60" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="15:15">
       <c r="O60" s="2"/>
     </row>
-    <row r="61" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="15:15">
       <c r="O61" s="2"/>
     </row>
-    <row r="62" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="15:15">
       <c r="O62" s="2"/>
     </row>
-    <row r="63" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="15:15">
       <c r="O63" s="2"/>
     </row>
-    <row r="64" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="15:15">
       <c r="O64" s="2"/>
     </row>
-    <row r="65" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="15:15">
       <c r="O65" s="2"/>
     </row>
-    <row r="66" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="15:15">
       <c r="O66" s="2"/>
     </row>
-    <row r="67" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="15:15">
       <c r="O67" s="2"/>
     </row>
-    <row r="68" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="15:15">
       <c r="O68" s="2"/>
     </row>
-    <row r="69" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="15:15">
       <c r="O69" s="2"/>
     </row>
-    <row r="70" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="15:15">
       <c r="O70" s="2"/>
     </row>
-    <row r="71" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="15:15">
       <c r="O71" s="2"/>
     </row>
-    <row r="72" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="15:15">
       <c r="O72" s="2"/>
     </row>
-    <row r="73" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="15:15">
       <c r="O73" s="2"/>
     </row>
-    <row r="74" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="15:15">
       <c r="O74" s="2"/>
     </row>
-    <row r="75" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="15:15">
       <c r="O75" s="2"/>
     </row>
-    <row r="76" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="15:15">
       <c r="O76" s="2"/>
     </row>
-    <row r="77" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="15:15">
       <c r="O77" s="2"/>
     </row>
-    <row r="78" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="15:15">
       <c r="O78" s="2"/>
     </row>
-    <row r="79" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="15:15">
       <c r="O79" s="2"/>
     </row>
-    <row r="80" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="15:15">
       <c r="O80" s="2"/>
     </row>
-    <row r="81" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="15:15">
       <c r="O81" s="2"/>
     </row>
-    <row r="82" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="15:15">
       <c r="O82" s="2"/>
     </row>
-    <row r="83" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="15:15">
       <c r="O83" s="2"/>
     </row>
-    <row r="84" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="15:15">
       <c r="O84" s="2"/>
     </row>
-    <row r="85" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="15:15">
       <c r="O85" s="2"/>
     </row>
-    <row r="86" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="15:15">
       <c r="O86" s="2"/>
     </row>
-    <row r="87" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="15:15">
       <c r="O87" s="2"/>
     </row>
-    <row r="88" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="15:15">
       <c r="O88" s="2"/>
     </row>
-    <row r="89" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="15:15">
       <c r="O89" s="2"/>
     </row>
-    <row r="90" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="15:15">
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="15:15">
       <c r="O91" s="2"/>
     </row>
-    <row r="92" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="15:15">
       <c r="O92" s="2"/>
     </row>
-    <row r="93" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="15:15">
       <c r="O93" s="2"/>
     </row>
-    <row r="94" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="15:15">
       <c r="O94" s="2"/>
     </row>
-    <row r="95" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="15:15">
       <c r="O95" s="2"/>
     </row>
-    <row r="96" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="15:15">
       <c r="O96" s="2"/>
     </row>
-    <row r="97" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="15:15">
       <c r="O97" s="2"/>
     </row>
-    <row r="98" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="15:15">
       <c r="O98" s="2"/>
     </row>
-    <row r="99" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="15:15">
       <c r="O99" s="2"/>
     </row>
-    <row r="100" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="15:15">
       <c r="O100" s="2"/>
     </row>
-    <row r="101" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="15:15">
       <c r="O101" s="2"/>
     </row>
-    <row r="102" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="15:15">
       <c r="O102" s="2"/>
     </row>
-    <row r="103" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="15:15">
       <c r="O103" s="2"/>
     </row>
-    <row r="104" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="15:15">
       <c r="O104" s="2"/>
     </row>
-    <row r="105" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="15:15">
       <c r="O105" s="2"/>
     </row>
-    <row r="106" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="15:15">
       <c r="O106" s="2"/>
     </row>
-    <row r="107" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="15:15">
       <c r="O107" s="2"/>
     </row>
-    <row r="108" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="15:15">
       <c r="O108" s="2"/>
     </row>
-    <row r="109" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="15:15">
       <c r="O109" s="2"/>
     </row>
-    <row r="110" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="15:15">
       <c r="O110" s="2"/>
     </row>
-    <row r="111" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="15:15">
       <c r="O111" s="2"/>
     </row>
-    <row r="112" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="15:15">
       <c r="O112" s="2"/>
     </row>
-    <row r="113" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="15:15">
       <c r="O113" s="2"/>
     </row>
-    <row r="114" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="15:15">
       <c r="O114" s="2"/>
     </row>
-    <row r="115" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="15:15">
       <c r="O115" s="2"/>
     </row>
-    <row r="116" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="15:15">
       <c r="O116" s="2"/>
     </row>
-    <row r="117" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="15:15">
       <c r="O117" s="2"/>
     </row>
-    <row r="118" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="15:15">
       <c r="O118" s="2"/>
     </row>
-    <row r="119" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="15:15">
       <c r="O119" s="2"/>
     </row>
-    <row r="120" spans="15:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="15:15">
       <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="15:15">
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="15:15">
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="15:15">
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="15:15">
+      <c r="O124" s="2"/>
+    </row>
+    <row r="125" spans="15:15">
+      <c r="O125" s="2"/>
+    </row>
+    <row r="126" spans="15:15">
+      <c r="O126" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>
@@ -2094,8 +2493,20 @@
     <hyperlink ref="K19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
     <hyperlink ref="I20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
     <hyperlink ref="J20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="K21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="K22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="K23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="K24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="K25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="K26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId35"/>
+  <legacyDrawing r:id="rId47"/>
 </worksheet>
 </file>
--- a/_data/answers/2024.xlsx
+++ b/_data/answers/2024.xlsx
@@ -1,42 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ymats\Documents\Desktop\Circles\マイサー合同\マイサー合同HP\_data\answers\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FAD5940-C133-485B-A6C3-004297929F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
   <sheets>
-    <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
+    <sheet state="visible" name="フォームの回答 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment authorId="0" ref="B6">
       <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>2回目に提出した回答を採用
+        <t xml:space="preserve">2回目に提出した回答を採用
 	-本郷</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -44,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="240">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -383,6 +366,9 @@
 兼部余裕の緩くて楽しい部活ですので、ガチで和漢薬を学びたい人も、活動に緩く参加したい人も、是非遊びに来てください。</t>
   </si>
   <si>
+    <t>大阪大学TCGサークル(非公認)</t>
+  </si>
+  <si>
     <t>空き教室</t>
   </si>
   <si>
@@ -430,7 +416,7 @@
     <t>新入生はもちろん在学生も大歓迎です！</t>
   </si>
   <si>
-    <t>コントラクトブリッジ部</t>
+    <t>大阪大学コントラクトブリッジ部</t>
   </si>
   <si>
     <t>昭和３９年</t>
@@ -558,7 +544,7 @@
     <t>Web上（今後、対面も想定）</t>
   </si>
   <si>
-    <t>　①新道&amp;珍道などの訪問
+    <t xml:space="preserve">　①新道&amp;珍道などの訪問
 　②SA&amp;PA散策
 　③交通網の提案
 を軸に活動します。普段は、道路に関する様々な情報を共有しあっています。</t>
@@ -769,113 +755,101 @@
     <t>阪大/共通棟のことが好きな方、学年・学部問わず募集中です！</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>大阪大学</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>TCG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>サークル</t>
-    </r>
-    <phoneticPr fontId="5"/>
+    <t>お化け屋敷研究会</t>
+  </si>
+  <si>
+    <t>57人</t>
+  </si>
+  <si>
+    <t>学祭前</t>
+  </si>
+  <si>
+    <t>特になし</t>
+  </si>
+  <si>
+    <t>学祭で本格的なお化け屋敷を出展する。</t>
+  </si>
+  <si>
+    <t>u345520b@ecs.osaka-u.ac.jp</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19C9o9KilVdDIlvluuqnrRkldkof7ETeB</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Q-M6TPWmDJlvfOlUvwtEsTmmAOYp2akP</t>
+  </si>
+  <si>
+    <t>一緒に本格的なお化け屋敷を創りましょう！
+あなたの特技をお化け屋敷に活かせるチャンス！</t>
+  </si>
+  <si>
+    <t>大阪大学SANDSTORM</t>
+  </si>
+  <si>
+    <t>豊中、吹田、箕面</t>
+  </si>
+  <si>
+    <t>SANDSTORMの文字のあるグッズを身に着けて生活する</t>
+  </si>
+  <si>
+    <t>@ou_sandstorm</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=12yi1ea_lrz4T2a-rTKvWmOb4U9hghR03</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1V-mGVPrNmAxt-h0RN9fU1z0LJA9pv4UL</t>
+  </si>
+  <si>
+    <t>活動頻度、場所自由です！</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
-      <sz val="10"/>
+      <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Arial"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="lightGray"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -885,55 +859,112 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFB7B7B7"/>
+        <bgColor rgb="FFB7B7B7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <top style="thin">
+        <color rgb="FF4A86E8"/>
+      </top>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="176" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="27">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf quotePrefix="1" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1123,33 +1154,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:T126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2.0" ySplit="1.0" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="C1" sqref="C1" pane="topRight"/>
+      <selection activeCell="A2" sqref="A2" pane="bottomLeft"/>
+      <selection activeCell="C2" sqref="C2" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.7109375" customWidth="1"/>
-    <col min="2" max="2" width="77.5703125" customWidth="1"/>
-    <col min="3" max="20" width="18.85546875" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="5.75"/>
+    <col customWidth="1" min="2" max="20" width="18.88"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1186,1327 +1213,1419 @@
       <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
-      <c r="A2" s="3">
-        <v>45358.752286493051</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="2">
+      <c r="A2" s="4">
+        <v>45358.75228649305</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1" t="b">
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="9" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" s="3">
-        <v>45363.462517256943</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="10">
+        <v>45363.46251725694</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="K3" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O3" s="2" t="b">
+      <c r="O3" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
-      <c r="A4" s="3">
-        <v>45365.884191215278</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4">
+      <c r="A4" s="10">
+        <v>45365.88419121528</v>
+      </c>
+      <c r="B4" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="11">
+        <v>41.0</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="K4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O4" s="2" t="b">
+      <c r="O4" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:20">
-      <c r="A5" s="3">
-        <v>45368.480713182871</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="5">
+      <c r="A5" s="10">
+        <v>45368.48071318287</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O5" s="2" t="b">
+      <c r="O5" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
-      <c r="A6" s="3">
+    <row r="6">
+      <c r="A6" s="10">
         <v>45368.653474085644</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C6" s="1">
-        <v>56</v>
-      </c>
-      <c r="D6" s="4" t="s">
+      <c r="C6" s="11">
+        <v>56.0</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="I6" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="2" t="b">
+      <c r="O6" s="3" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
-      <c r="A7" s="3">
-        <v>45375.954739212961</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="7">
+      <c r="A7" s="10">
+        <v>45375.95473921296</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C7" s="11">
+        <v>10.0</v>
+      </c>
+      <c r="D7" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="O7" s="1" t="b">
+      <c r="O7" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
-      <c r="A8" s="3">
+    <row r="8">
+      <c r="A8" s="10">
         <v>45375.956251446754</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="O8" s="1" t="b">
+      <c r="O8" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
-      <c r="A9" s="3">
-        <v>45375.970987418987</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="9">
+      <c r="A9" s="10">
+        <v>45375.97098741899</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="O9" s="1" t="b">
+      <c r="O9" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
-      <c r="A10" s="3">
+    <row r="10">
+      <c r="A10" s="10">
         <v>45380.688961712964</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="1">
-        <v>29</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="C10" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="1" t="s">
+      <c r="I10" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="K10" s="5" t="s">
+      <c r="K10" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="O10" s="1" t="b">
+      <c r="O10" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
-      <c r="A11" s="3">
-        <v>45383.675380011569</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="11">
+      <c r="A11" s="10">
+        <v>45383.67538001157</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="1">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C11" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="K11" s="5" t="s">
+      <c r="K11" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="O11" s="1" t="b">
+      <c r="O11" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
-      <c r="A12" s="3">
-        <v>45383.847972650459</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    <row r="12">
+      <c r="A12" s="10">
+        <v>45383.84797265046</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="I12" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="K12" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="O12" s="1" t="b">
+      <c r="O12" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
-      <c r="A13" s="3">
+    <row r="13">
+      <c r="A13" s="10">
         <v>45384.977684467594</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="11">
+        <v>20.0</v>
+      </c>
+      <c r="D13" s="11">
+        <v>2023.1</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O13" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15">
+        <v>45386.691657013886</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="16">
+        <v>56.0</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="J14" s="19" t="s">
+        <v>115</v>
+      </c>
+      <c r="K14" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="L14" s="18"/>
+      <c r="M14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="N14" s="18"/>
+      <c r="O14" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="10">
+        <v>45386.76458425926</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="11">
+        <v>5.0</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="10">
+        <v>45386.77626780093</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="11">
+        <v>29.0</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="I16" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O16" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="15">
+        <v>45390.955428217596</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="16">
+        <v>10.0</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="I17" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J17" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>140</v>
+      </c>
+      <c r="L17" s="18"/>
+      <c r="M17" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="N17" s="18"/>
+      <c r="O17" s="16" t="b">
+        <v>1</v>
+      </c>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="18"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="10">
+        <v>45392.96595421297</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="L18" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="N18" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="O18" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="10">
+        <v>45395.49330729167</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="O19" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="10">
+        <v>45399.94676251158</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O20" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="10">
+        <v>45402.82751833333</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C21" s="11">
+        <v>9.0</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="N21" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="O21" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="10">
+        <v>45403.951256562505</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="11">
+        <v>6.0</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="O22" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="21">
+        <v>45406.01867974537</v>
+      </c>
+      <c r="B23" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="C23" s="22">
+        <v>23.0</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="E23" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G23" s="24"/>
+      <c r="H23" s="22" t="s">
+        <v>192</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" s="25" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" s="24"/>
+      <c r="M23" s="22" t="s">
+        <v>196</v>
+      </c>
+      <c r="N23" s="24"/>
+      <c r="O23" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="10">
+        <v>45406.447045127316</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C24" s="11">
+        <v>19.0</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="O24" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="10">
+        <v>45406.695381956015</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C25" s="11">
+        <v>12.0</v>
+      </c>
+      <c r="D25" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="N25" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="10">
+        <v>45406.86972025463</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2.0</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="M26" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C13" s="1">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2023.1</v>
-      </c>
-      <c r="E13" s="1" t="s">
+      <c r="O26" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="10">
+        <v>45408.72427384259</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="O27" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="10">
+        <v>45409.81227678241</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1.0</v>
+      </c>
+      <c r="D28" s="11">
+        <v>240401.0</v>
+      </c>
+      <c r="E28" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>106</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="1" t="b">
+      <c r="F28" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="O28" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
-      <c r="A14" s="6">
-        <v>45386.691657013886</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="7">
-        <v>56</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="J14" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-      <c r="S14" s="7"/>
-      <c r="T14" s="7"/>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" s="3">
-        <v>45386.764584259261</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C15" s="1">
-        <v>5</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O15" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" s="3">
-        <v>45386.776267800931</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C16" s="1">
-        <v>29</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="O16" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" s="6">
-        <v>45390.955428217596</v>
-      </c>
-      <c r="B17" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C17" s="7">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7" t="b">
-        <v>1</v>
-      </c>
-      <c r="P17" s="7"/>
-      <c r="Q17" s="7"/>
-      <c r="R17" s="7"/>
-      <c r="S17" s="7"/>
-      <c r="T17" s="7"/>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" s="3">
-        <v>45392.965954212967</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K18" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="N18" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="O18" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" s="3">
-        <v>45395.493307291668</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="J19" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="K19" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="O19" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" s="3">
-        <v>45399.946762511579</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="O20" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" s="3">
-        <v>45402.827518333332</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C21" s="1">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="M21" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="N21" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="O21" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" s="3">
-        <v>45403.951256562505</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="C22" s="1">
-        <v>6</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="M22" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="O22" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" s="3">
-        <v>45406.018679745372</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="C23" s="1">
-        <v>23</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>193</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="M23" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="O23" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" s="3">
-        <v>45406.447045127316</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C24" s="1">
-        <v>19</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="J24" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="O24" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" s="3">
-        <v>45406.695381956015</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="1">
-        <v>12</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="K25" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="O25" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" s="3">
-        <v>45406.869720254632</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>221</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="O26" s="1" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
-      <c r="O27" s="2" t="b">
+    <row r="29">
+      <c r="O29" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
-      <c r="O28" s="2" t="b">
+    <row r="30">
+      <c r="O30" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
-      <c r="O29" s="2" t="b">
+    <row r="31">
+      <c r="O31" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
-      <c r="O30" s="2" t="b">
+    <row r="32">
+      <c r="O32" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
-      <c r="O31" s="2" t="b">
+    <row r="33">
+      <c r="O33" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
-      <c r="O32" s="2" t="b">
+    <row r="34">
+      <c r="O34" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="15:15">
-      <c r="O33" s="2" t="b">
+    <row r="35">
+      <c r="O35" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="15:15">
-      <c r="O34" s="2" t="b">
+    <row r="36">
+      <c r="O36" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="15:15">
-      <c r="O35" s="2" t="b">
+    <row r="37">
+      <c r="O37" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="15:15">
-      <c r="O36" s="2" t="b">
+    <row r="38">
+      <c r="O38" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="15:15">
-      <c r="O37" s="2" t="b">
+    <row r="39">
+      <c r="O39" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="15:15">
-      <c r="O38" s="2" t="b">
+    <row r="40">
+      <c r="O40" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="15:15">
-      <c r="O39" s="2" t="b">
+    <row r="41">
+      <c r="O41" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="15:15">
-      <c r="O40" s="2" t="b">
+    <row r="42">
+      <c r="O42" s="26" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="15:15">
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="15:15">
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="15:15">
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="15:15">
-      <c r="O44" s="2"/>
-    </row>
-    <row r="45" spans="15:15">
-      <c r="O45" s="2"/>
-    </row>
-    <row r="46" spans="15:15">
-      <c r="O46" s="2"/>
-    </row>
-    <row r="47" spans="15:15">
-      <c r="O47" s="2"/>
-    </row>
-    <row r="48" spans="15:15">
-      <c r="O48" s="2"/>
-    </row>
-    <row r="49" spans="15:15">
-      <c r="O49" s="2"/>
-    </row>
-    <row r="50" spans="15:15">
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="15:15">
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="15:15">
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="15:15">
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="15:15">
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="15:15">
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="15:15">
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="15:15">
-      <c r="O57" s="2"/>
-    </row>
-    <row r="58" spans="15:15">
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="15:15">
-      <c r="O59" s="2"/>
-    </row>
-    <row r="60" spans="15:15">
-      <c r="O60" s="2"/>
-    </row>
-    <row r="61" spans="15:15">
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="15:15">
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="15:15">
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="15:15">
-      <c r="O64" s="2"/>
-    </row>
-    <row r="65" spans="15:15">
-      <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="15:15">
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="15:15">
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="15:15">
-      <c r="O68" s="2"/>
-    </row>
-    <row r="69" spans="15:15">
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="15:15">
-      <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="15:15">
-      <c r="O71" s="2"/>
-    </row>
-    <row r="72" spans="15:15">
-      <c r="O72" s="2"/>
-    </row>
-    <row r="73" spans="15:15">
-      <c r="O73" s="2"/>
-    </row>
-    <row r="74" spans="15:15">
-      <c r="O74" s="2"/>
-    </row>
-    <row r="75" spans="15:15">
-      <c r="O75" s="2"/>
-    </row>
-    <row r="76" spans="15:15">
-      <c r="O76" s="2"/>
-    </row>
-    <row r="77" spans="15:15">
-      <c r="O77" s="2"/>
-    </row>
-    <row r="78" spans="15:15">
-      <c r="O78" s="2"/>
-    </row>
-    <row r="79" spans="15:15">
-      <c r="O79" s="2"/>
-    </row>
-    <row r="80" spans="15:15">
-      <c r="O80" s="2"/>
-    </row>
-    <row r="81" spans="15:15">
-      <c r="O81" s="2"/>
-    </row>
-    <row r="82" spans="15:15">
-      <c r="O82" s="2"/>
-    </row>
-    <row r="83" spans="15:15">
-      <c r="O83" s="2"/>
-    </row>
-    <row r="84" spans="15:15">
-      <c r="O84" s="2"/>
-    </row>
-    <row r="85" spans="15:15">
-      <c r="O85" s="2"/>
-    </row>
-    <row r="86" spans="15:15">
-      <c r="O86" s="2"/>
-    </row>
-    <row r="87" spans="15:15">
-      <c r="O87" s="2"/>
-    </row>
-    <row r="88" spans="15:15">
-      <c r="O88" s="2"/>
-    </row>
-    <row r="89" spans="15:15">
-      <c r="O89" s="2"/>
-    </row>
-    <row r="90" spans="15:15">
-      <c r="O90" s="2"/>
-    </row>
-    <row r="91" spans="15:15">
-      <c r="O91" s="2"/>
-    </row>
-    <row r="92" spans="15:15">
-      <c r="O92" s="2"/>
-    </row>
-    <row r="93" spans="15:15">
-      <c r="O93" s="2"/>
-    </row>
-    <row r="94" spans="15:15">
-      <c r="O94" s="2"/>
-    </row>
-    <row r="95" spans="15:15">
-      <c r="O95" s="2"/>
-    </row>
-    <row r="96" spans="15:15">
-      <c r="O96" s="2"/>
-    </row>
-    <row r="97" spans="15:15">
-      <c r="O97" s="2"/>
-    </row>
-    <row r="98" spans="15:15">
-      <c r="O98" s="2"/>
-    </row>
-    <row r="99" spans="15:15">
-      <c r="O99" s="2"/>
-    </row>
-    <row r="100" spans="15:15">
-      <c r="O100" s="2"/>
-    </row>
-    <row r="101" spans="15:15">
-      <c r="O101" s="2"/>
-    </row>
-    <row r="102" spans="15:15">
-      <c r="O102" s="2"/>
-    </row>
-    <row r="103" spans="15:15">
-      <c r="O103" s="2"/>
-    </row>
-    <row r="104" spans="15:15">
-      <c r="O104" s="2"/>
-    </row>
-    <row r="105" spans="15:15">
-      <c r="O105" s="2"/>
-    </row>
-    <row r="106" spans="15:15">
-      <c r="O106" s="2"/>
-    </row>
-    <row r="107" spans="15:15">
-      <c r="O107" s="2"/>
-    </row>
-    <row r="108" spans="15:15">
-      <c r="O108" s="2"/>
-    </row>
-    <row r="109" spans="15:15">
-      <c r="O109" s="2"/>
-    </row>
-    <row r="110" spans="15:15">
-      <c r="O110" s="2"/>
-    </row>
-    <row r="111" spans="15:15">
-      <c r="O111" s="2"/>
-    </row>
-    <row r="112" spans="15:15">
-      <c r="O112" s="2"/>
-    </row>
-    <row r="113" spans="15:15">
-      <c r="O113" s="2"/>
-    </row>
-    <row r="114" spans="15:15">
-      <c r="O114" s="2"/>
-    </row>
-    <row r="115" spans="15:15">
-      <c r="O115" s="2"/>
-    </row>
-    <row r="116" spans="15:15">
-      <c r="O116" s="2"/>
-    </row>
-    <row r="117" spans="15:15">
-      <c r="O117" s="2"/>
-    </row>
-    <row r="118" spans="15:15">
-      <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="15:15">
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="15:15">
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="15:15">
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="15:15">
-      <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="15:15">
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="15:15">
-      <c r="O124" s="2"/>
-    </row>
-    <row r="125" spans="15:15">
-      <c r="O125" s="2"/>
-    </row>
-    <row r="126" spans="15:15">
-      <c r="O126" s="2"/>
+    <row r="43">
+      <c r="O43" s="26"/>
+    </row>
+    <row r="44">
+      <c r="O44" s="26"/>
+    </row>
+    <row r="45">
+      <c r="O45" s="26"/>
+    </row>
+    <row r="46">
+      <c r="O46" s="26"/>
+    </row>
+    <row r="47">
+      <c r="O47" s="26"/>
+    </row>
+    <row r="48">
+      <c r="O48" s="26"/>
+    </row>
+    <row r="49">
+      <c r="O49" s="26"/>
+    </row>
+    <row r="50">
+      <c r="O50" s="26"/>
+    </row>
+    <row r="51">
+      <c r="O51" s="26"/>
+    </row>
+    <row r="52">
+      <c r="O52" s="26"/>
+    </row>
+    <row r="53">
+      <c r="O53" s="26"/>
+    </row>
+    <row r="54">
+      <c r="O54" s="26"/>
+    </row>
+    <row r="55">
+      <c r="O55" s="26"/>
+    </row>
+    <row r="56">
+      <c r="O56" s="26"/>
+    </row>
+    <row r="57">
+      <c r="O57" s="26"/>
+    </row>
+    <row r="58">
+      <c r="O58" s="26"/>
+    </row>
+    <row r="59">
+      <c r="O59" s="26"/>
+    </row>
+    <row r="60">
+      <c r="O60" s="26"/>
+    </row>
+    <row r="61">
+      <c r="O61" s="26"/>
+    </row>
+    <row r="62">
+      <c r="O62" s="26"/>
+    </row>
+    <row r="63">
+      <c r="O63" s="26"/>
+    </row>
+    <row r="64">
+      <c r="O64" s="26"/>
+    </row>
+    <row r="65">
+      <c r="O65" s="26"/>
+    </row>
+    <row r="66">
+      <c r="O66" s="26"/>
+    </row>
+    <row r="67">
+      <c r="O67" s="26"/>
+    </row>
+    <row r="68">
+      <c r="O68" s="26"/>
+    </row>
+    <row r="69">
+      <c r="O69" s="26"/>
+    </row>
+    <row r="70">
+      <c r="O70" s="26"/>
+    </row>
+    <row r="71">
+      <c r="O71" s="26"/>
+    </row>
+    <row r="72">
+      <c r="O72" s="26"/>
+    </row>
+    <row r="73">
+      <c r="O73" s="26"/>
+    </row>
+    <row r="74">
+      <c r="O74" s="26"/>
+    </row>
+    <row r="75">
+      <c r="O75" s="26"/>
+    </row>
+    <row r="76">
+      <c r="O76" s="26"/>
+    </row>
+    <row r="77">
+      <c r="O77" s="26"/>
+    </row>
+    <row r="78">
+      <c r="O78" s="26"/>
+    </row>
+    <row r="79">
+      <c r="O79" s="26"/>
+    </row>
+    <row r="80">
+      <c r="O80" s="26"/>
+    </row>
+    <row r="81">
+      <c r="O81" s="26"/>
+    </row>
+    <row r="82">
+      <c r="O82" s="26"/>
+    </row>
+    <row r="83">
+      <c r="O83" s="26"/>
+    </row>
+    <row r="84">
+      <c r="O84" s="26"/>
+    </row>
+    <row r="85">
+      <c r="O85" s="26"/>
+    </row>
+    <row r="86">
+      <c r="O86" s="26"/>
+    </row>
+    <row r="87">
+      <c r="O87" s="26"/>
+    </row>
+    <row r="88">
+      <c r="O88" s="26"/>
+    </row>
+    <row r="89">
+      <c r="O89" s="26"/>
+    </row>
+    <row r="90">
+      <c r="O90" s="26"/>
+    </row>
+    <row r="91">
+      <c r="O91" s="26"/>
+    </row>
+    <row r="92">
+      <c r="O92" s="26"/>
+    </row>
+    <row r="93">
+      <c r="O93" s="26"/>
+    </row>
+    <row r="94">
+      <c r="O94" s="26"/>
+    </row>
+    <row r="95">
+      <c r="O95" s="26"/>
+    </row>
+    <row r="96">
+      <c r="O96" s="26"/>
+    </row>
+    <row r="97">
+      <c r="O97" s="26"/>
+    </row>
+    <row r="98">
+      <c r="O98" s="26"/>
+    </row>
+    <row r="99">
+      <c r="O99" s="26"/>
+    </row>
+    <row r="100">
+      <c r="O100" s="26"/>
+    </row>
+    <row r="101">
+      <c r="O101" s="26"/>
+    </row>
+    <row r="102">
+      <c r="O102" s="26"/>
+    </row>
+    <row r="103">
+      <c r="O103" s="26"/>
+    </row>
+    <row r="104">
+      <c r="O104" s="26"/>
+    </row>
+    <row r="105">
+      <c r="O105" s="26"/>
+    </row>
+    <row r="106">
+      <c r="O106" s="26"/>
+    </row>
+    <row r="107">
+      <c r="O107" s="26"/>
+    </row>
+    <row r="108">
+      <c r="O108" s="26"/>
+    </row>
+    <row r="109">
+      <c r="O109" s="26"/>
+    </row>
+    <row r="110">
+      <c r="O110" s="26"/>
+    </row>
+    <row r="111">
+      <c r="O111" s="26"/>
+    </row>
+    <row r="112">
+      <c r="O112" s="26"/>
+    </row>
+    <row r="113">
+      <c r="O113" s="26"/>
+    </row>
+    <row r="114">
+      <c r="O114" s="26"/>
+    </row>
+    <row r="115">
+      <c r="O115" s="26"/>
+    </row>
+    <row r="116">
+      <c r="O116" s="26"/>
+    </row>
+    <row r="117">
+      <c r="O117" s="26"/>
+    </row>
+    <row r="118">
+      <c r="O118" s="26"/>
+    </row>
+    <row r="119">
+      <c r="O119" s="26"/>
+    </row>
+    <row r="120">
+      <c r="O120" s="26"/>
+    </row>
+    <row r="121">
+      <c r="O121" s="26"/>
+    </row>
+    <row r="122">
+      <c r="O122" s="26"/>
+    </row>
+    <row r="123">
+      <c r="O123" s="26"/>
+    </row>
+    <row r="124">
+      <c r="O124" s="26"/>
+    </row>
+    <row r="125">
+      <c r="O125" s="26"/>
+    </row>
+    <row r="126">
+      <c r="O126" s="26"/>
+    </row>
+    <row r="127">
+      <c r="O127" s="26"/>
+    </row>
+    <row r="128">
+      <c r="O128" s="26"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5"/>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="K3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="J4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="K4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="J5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="K5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="J6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="K6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="I7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="J7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="J10" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="K10" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J11" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="K11" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="J12" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="K12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="J13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="K13" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="J14" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="K14" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="J15" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="K15" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="J16" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="K16" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="J17" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="K17" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J18" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="K18" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J19" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="K19" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="I20" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J20" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J21" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="K21" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J22" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="K22" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J23" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="K23" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J24" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="K24" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J25" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="K25" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J26" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="K26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink r:id="rId2" ref="J2"/>
+    <hyperlink r:id="rId3" ref="K2"/>
+    <hyperlink r:id="rId4" ref="J3"/>
+    <hyperlink r:id="rId5" ref="K3"/>
+    <hyperlink r:id="rId6" ref="J4"/>
+    <hyperlink r:id="rId7" ref="K4"/>
+    <hyperlink r:id="rId8" ref="J5"/>
+    <hyperlink r:id="rId9" ref="K5"/>
+    <hyperlink r:id="rId10" ref="J6"/>
+    <hyperlink r:id="rId11" ref="K6"/>
+    <hyperlink r:id="rId12" ref="I7"/>
+    <hyperlink r:id="rId13" ref="J7"/>
+    <hyperlink r:id="rId14" ref="J10"/>
+    <hyperlink r:id="rId15" ref="K10"/>
+    <hyperlink r:id="rId16" ref="J11"/>
+    <hyperlink r:id="rId17" ref="K11"/>
+    <hyperlink r:id="rId18" ref="J12"/>
+    <hyperlink r:id="rId19" ref="K12"/>
+    <hyperlink r:id="rId20" ref="J13"/>
+    <hyperlink r:id="rId21" ref="K13"/>
+    <hyperlink r:id="rId22" ref="J14"/>
+    <hyperlink r:id="rId23" ref="K14"/>
+    <hyperlink r:id="rId24" ref="J15"/>
+    <hyperlink r:id="rId25" ref="K15"/>
+    <hyperlink r:id="rId26" ref="J16"/>
+    <hyperlink r:id="rId27" ref="K16"/>
+    <hyperlink r:id="rId28" ref="J17"/>
+    <hyperlink r:id="rId29" ref="K17"/>
+    <hyperlink r:id="rId30" ref="J18"/>
+    <hyperlink r:id="rId31" ref="K18"/>
+    <hyperlink r:id="rId32" ref="J19"/>
+    <hyperlink r:id="rId33" ref="K19"/>
+    <hyperlink r:id="rId34" ref="I20"/>
+    <hyperlink r:id="rId35" ref="J20"/>
+    <hyperlink r:id="rId36" ref="J21"/>
+    <hyperlink r:id="rId37" ref="K21"/>
+    <hyperlink r:id="rId38" ref="J22"/>
+    <hyperlink r:id="rId39" ref="K22"/>
+    <hyperlink r:id="rId40" ref="J23"/>
+    <hyperlink r:id="rId41" ref="K23"/>
+    <hyperlink r:id="rId42" ref="J24"/>
+    <hyperlink r:id="rId43" ref="K24"/>
+    <hyperlink r:id="rId44" ref="J25"/>
+    <hyperlink r:id="rId45" ref="K25"/>
+    <hyperlink r:id="rId46" ref="J26"/>
+    <hyperlink r:id="rId47" ref="K26"/>
+    <hyperlink r:id="rId48" ref="J27"/>
+    <hyperlink r:id="rId49" ref="K27"/>
+    <hyperlink r:id="rId50" ref="J28"/>
+    <hyperlink r:id="rId51" ref="K28"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId47"/>
+  <drawing r:id="rId52"/>
+  <legacyDrawing r:id="rId53"/>
 </worksheet>
 </file>